--- a/22_image_to_excel/test_evidence.xlsx
+++ b/22_image_to_excel/test_evidence.xlsx
@@ -9,7 +9,7 @@
     <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="No.1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="No.2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="No.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="No.21" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1387,8 +1387,8 @@
   </sheetPr>
   <dimension ref="A2:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
